--- a/Presentation/Presentation-Graph_example.xlsx
+++ b/Presentation/Presentation-Graph_example.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trang\Google Drive\UQAM\Courses\BIO6065_ET20\DDES-GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trang\Google Drive\UQAM\Courses\BIO6065_ET20\DDES-GitHub\VirtualBiogeography\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B054ABA9-3E20-4C04-9E4F-26E0CB8A3271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5D70BC-4412-41C6-B7F2-00DAB4330F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10160" yWindow="210" windowWidth="8840" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalV.Unidentifiable" sheetId="2" r:id="rId1"/>
     <sheet name="TotalV.Indentifiable" sheetId="3" r:id="rId2"/>
     <sheet name="example-data" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>screenshot_#</t>
   </si>
@@ -47,6 +48,531 @@
   </si>
   <si>
     <t>Identifiable</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>SS_00-01-04_GBR.png</t>
+  </si>
+  <si>
+    <t>SS_00-01-12_GBR.png</t>
+  </si>
+  <si>
+    <t>SS_00-01-30_GBR.png</t>
+  </si>
+  <si>
+    <t>SS_00-01-31_GBR.png</t>
+  </si>
+  <si>
+    <t>SS_00-01-33_GBR.png</t>
+  </si>
+  <si>
+    <t>SS_00-01-34_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-01-36_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-01-37_GBR.png</t>
+  </si>
+  <si>
+    <t>SS_00-01-48_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-02-05_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-02-08_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-02-16_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-02-44_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-03-04_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-03-13_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-05-28_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-05-34_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-05-42_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-05-53_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-06-47_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-18_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-26_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-35_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-40_GBR(2).PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-40_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-41_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-43_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-49_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-51_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-53_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-56_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-07-58_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-08-01_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-08-03_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-08-04_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-08-09_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-08-12_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-08-53_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-09-02_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-09-47_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-09-54_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-09-57_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-02_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-08_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-13_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-20_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-39_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-42_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-43_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-10-47_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-18_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-20_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-21_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-22_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-24_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-27_GBR(2).PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-27_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-28_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-29_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-31_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-32_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-33_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-36_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-38_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-40_GBR(2).PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-40_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-42_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-43_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-44_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-47_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-49_GBR(2).PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-49_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-50_GBR(2).PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-50_GBR(3).PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-50_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-11-52_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-12-02_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-12-21_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-12-23_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-13-43_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-14-05_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-15-08_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-33_SPO(2).PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-33_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-34_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-35_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-37_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-39_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-40_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-46_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-48_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-16-58_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-17-02_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-17-05_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-17-09_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-17-11_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-17-14_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-17-34_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-17-37_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-19-00_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-20-34_SL.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-20-52_SL.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-21-05_SL.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-22-55_SL.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-25-26_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-26-48_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-26-55_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-27-18_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-27-51_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-28-32_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-28-54_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-29-50_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-34-13_T.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-40-37_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-40-43_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-40-54_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-41-57_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-45-53_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-45-55_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-51-47_EAC.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-52-36_EAC.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-52-42_EAC.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-52-50_EAC.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-54-00_EAC.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-55-38_EAC.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-56-33_EAC.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-56-38_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-56-44_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-56-52_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-56-58_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-00_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-02_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-05_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-08_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-25_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-27_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-34_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-57-44_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_00-59-45_DO.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-06-51_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-08-36_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-08-39_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-08-44_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-08-46_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-08-55_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-13-48_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-16-48_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-17-34_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-21-50_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-24-02_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-24-18_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-24-30_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-25-16_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-25-19_FG.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-26-22_FG.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-26-35_FG.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-00_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-02_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-05_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-06_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-16_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-20_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-45_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-49_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-31-51_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-32-06_GBR.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-33-20_SH.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-33-36_SPO.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-39-37_credit_MikeWazowski.PNG</t>
+  </si>
+  <si>
+    <t>SS_01-40-12_credit_T.PNG</t>
+  </si>
+  <si>
+    <t>new_identified</t>
+  </si>
+  <si>
+    <t>new_unidentified</t>
+  </si>
+  <si>
+    <t>total_identified</t>
+  </si>
+  <si>
+    <t>total_unidentified-upt</t>
   </si>
 </sst>
 </file>
@@ -4019,7 +4545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+    <sheetView zoomScale="67" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -4498,4 +5024,889 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74238123-9F9F-4401-AD95-B4F002078386}">
+  <dimension ref="A1:E171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Presentation/Presentation-Graph_example.xlsx
+++ b/Presentation/Presentation-Graph_example.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trang\Google Drive\UQAM\Courses\BIO6065_ET20\DDES-GitHub\VirtualBiogeography\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5D70BC-4412-41C6-B7F2-00DAB4330F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9416ED2-A657-4268-A25D-B16C394FDE6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="210" windowWidth="8840" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalV.Unidentifiable" sheetId="2" r:id="rId1"/>
     <sheet name="TotalV.Indentifiable" sheetId="3" r:id="rId2"/>
     <sheet name="example-data" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Final-graph" sheetId="6" r:id="rId4"/>
+    <sheet name="graph-data" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>screenshot_#</t>
   </si>
@@ -50,537 +54,39 @@
     <t>Identifiable</t>
   </si>
   <si>
-    <t>Screenshot</t>
+    <t>new-ID_species</t>
   </si>
   <si>
-    <t>SS_00-01-04_GBR.png</t>
+    <t>new-unID</t>
   </si>
   <si>
-    <t>SS_00-01-12_GBR.png</t>
+    <t>movie minute</t>
   </si>
   <si>
-    <t>SS_00-01-30_GBR.png</t>
+    <t>total-to-point</t>
   </si>
   <si>
-    <t>SS_00-01-31_GBR.png</t>
+    <t>unID-to-point</t>
   </si>
   <si>
-    <t>SS_00-01-33_GBR.png</t>
-  </si>
-  <si>
-    <t>SS_00-01-34_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-01-36_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-01-37_GBR.png</t>
-  </si>
-  <si>
-    <t>SS_00-01-48_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-02-05_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-02-08_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-02-16_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-02-44_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-03-04_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-03-13_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-05-28_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-05-34_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-05-42_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-05-53_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-06-47_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-18_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-26_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-35_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-40_GBR(2).PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-40_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-41_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-43_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-49_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-51_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-53_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-56_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-07-58_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-08-01_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-08-03_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-08-04_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-08-09_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-08-12_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-08-53_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-09-02_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-09-47_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-09-54_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-09-57_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-02_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-08_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-13_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-20_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-39_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-42_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-43_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-10-47_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-18_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-20_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-21_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-22_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-24_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-27_GBR(2).PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-27_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-28_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-29_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-31_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-32_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-33_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-36_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-38_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-40_GBR(2).PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-40_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-42_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-43_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-44_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-47_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-49_GBR(2).PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-49_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-50_GBR(2).PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-50_GBR(3).PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-50_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-11-52_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-12-02_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-12-21_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-12-23_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-13-43_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-14-05_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-15-08_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-33_SPO(2).PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-33_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-34_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-35_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-37_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-39_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-40_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-46_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-48_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-16-58_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-17-02_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-17-05_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-17-09_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-17-11_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-17-14_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-17-34_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-17-37_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-19-00_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-20-34_SL.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-20-52_SL.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-21-05_SL.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-22-55_SL.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-25-26_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-26-48_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-26-55_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-27-18_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-27-51_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-28-32_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-28-54_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-29-50_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-34-13_T.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-40-37_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-40-43_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-40-54_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-41-57_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-45-53_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-45-55_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-51-47_EAC.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-52-36_EAC.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-52-42_EAC.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-52-50_EAC.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-54-00_EAC.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-55-38_EAC.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-56-33_EAC.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-56-38_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-56-44_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-56-52_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-56-58_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-00_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-02_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-05_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-08_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-25_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-27_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-34_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-57-44_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_00-59-45_DO.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-06-51_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-08-36_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-08-39_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-08-44_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-08-46_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-08-55_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-13-48_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-16-48_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-17-34_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-21-50_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-24-02_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-24-18_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-24-30_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-25-16_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-25-19_FG.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-26-22_FG.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-26-35_FG.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-00_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-02_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-05_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-06_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-16_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-20_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-45_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-49_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-31-51_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-32-06_GBR.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-33-20_SH.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-33-36_SPO.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-39-37_credit_MikeWazowski.PNG</t>
-  </si>
-  <si>
-    <t>SS_01-40-12_credit_T.PNG</t>
-  </si>
-  <si>
-    <t>new_identified</t>
-  </si>
-  <si>
-    <t>new_unidentified</t>
-  </si>
-  <si>
-    <t>total_identified</t>
-  </si>
-  <si>
-    <t>total_unidentified-upt</t>
+    <t>This is compiled from actual-data by minute minute
+DATA extracted from Databases &gt; screenshot_analysis_status.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -608,8 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2473,6 +1988,1098 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11943387464469271"/>
+          <c:y val="3.2277561498196716E-2"/>
+          <c:w val="0.693549687207346"/>
+          <c:h val="0.78026153534815923"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'graph-data'!$A$2:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-data'!$D$2:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA0B-4703-A001-D6F1981FFDC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Unidentified</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'graph-data'!$A$2:$A$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'graph-data'!$E$2:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BA0B-4703-A001-D6F1981FFDC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="175024624"/>
+        <c:axId val="175021672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="175024624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Movie minute</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175021672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="175021672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Number of species</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175024624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2593,6 +3200,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -4119,6 +4766,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4167,6 +5330,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D293CD1D-B917-47E5-BF4D-13508E21469E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4278,6 +5452,1413 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8671719" cy="6290469"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD7A0B1-5460-45D9-8864-750D4FD1496D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="screenshot_analysis_status"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="G2">
+            <v>1</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3">
+            <v>2</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>7</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>8</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>12</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>13</v>
+          </cell>
+          <cell r="H7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8">
+            <v>13</v>
+          </cell>
+          <cell r="H8">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9">
+            <v>14</v>
+          </cell>
+          <cell r="H9">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>14</v>
+          </cell>
+          <cell r="H10">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>14</v>
+          </cell>
+          <cell r="H11">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>14</v>
+          </cell>
+          <cell r="H12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>14</v>
+          </cell>
+          <cell r="H13">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="G14">
+            <v>14</v>
+          </cell>
+          <cell r="H14">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="G15">
+            <v>14</v>
+          </cell>
+          <cell r="H15">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="G16">
+            <v>15</v>
+          </cell>
+          <cell r="H16">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17">
+            <v>15</v>
+          </cell>
+          <cell r="H17">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="G18">
+            <v>15</v>
+          </cell>
+          <cell r="H18">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="G19">
+            <v>15</v>
+          </cell>
+          <cell r="H19">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="G20">
+            <v>15</v>
+          </cell>
+          <cell r="H20">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="G21">
+            <v>15</v>
+          </cell>
+          <cell r="H21">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22">
+            <v>15</v>
+          </cell>
+          <cell r="H22">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23">
+            <v>15</v>
+          </cell>
+          <cell r="H23">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24">
+            <v>15</v>
+          </cell>
+          <cell r="H24">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="G25">
+            <v>15</v>
+          </cell>
+          <cell r="H25">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="G26">
+            <v>18</v>
+          </cell>
+          <cell r="H26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="G27">
+            <v>18</v>
+          </cell>
+          <cell r="H27">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="G28">
+            <v>18</v>
+          </cell>
+          <cell r="H28">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="G29">
+            <v>18</v>
+          </cell>
+          <cell r="H29">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="G30">
+            <v>19</v>
+          </cell>
+          <cell r="H30">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="G31">
+            <v>19</v>
+          </cell>
+          <cell r="H31">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="G32">
+            <v>19</v>
+          </cell>
+          <cell r="H32">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="G33">
+            <v>19</v>
+          </cell>
+          <cell r="H33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="G34">
+            <v>19</v>
+          </cell>
+          <cell r="H34">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="G35">
+            <v>19</v>
+          </cell>
+          <cell r="H35">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="G36">
+            <v>20</v>
+          </cell>
+          <cell r="H36">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="G37">
+            <v>20</v>
+          </cell>
+          <cell r="H37">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="G38">
+            <v>20</v>
+          </cell>
+          <cell r="H38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="G39">
+            <v>21</v>
+          </cell>
+          <cell r="H39">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="G40">
+            <v>21</v>
+          </cell>
+          <cell r="H40">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="G41">
+            <v>21</v>
+          </cell>
+          <cell r="H41">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="G42">
+            <v>21</v>
+          </cell>
+          <cell r="H42">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="G43">
+            <v>21</v>
+          </cell>
+          <cell r="H43">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="G44">
+            <v>21</v>
+          </cell>
+          <cell r="H44">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>23</v>
+          </cell>
+          <cell r="H45">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>23</v>
+          </cell>
+          <cell r="H46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>23</v>
+          </cell>
+          <cell r="H47">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>23</v>
+          </cell>
+          <cell r="H48">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>23</v>
+          </cell>
+          <cell r="H49">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>23</v>
+          </cell>
+          <cell r="H50">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>24</v>
+          </cell>
+          <cell r="H51">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>24</v>
+          </cell>
+          <cell r="H52">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>24</v>
+          </cell>
+          <cell r="H53">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>25</v>
+          </cell>
+          <cell r="H54">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>25</v>
+          </cell>
+          <cell r="H55">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>25</v>
+          </cell>
+          <cell r="H56">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>25</v>
+          </cell>
+          <cell r="H57">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>25</v>
+          </cell>
+          <cell r="H58">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>25</v>
+          </cell>
+          <cell r="H59">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
+            <v>26</v>
+          </cell>
+          <cell r="H60">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>26</v>
+          </cell>
+          <cell r="H61">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>26</v>
+          </cell>
+          <cell r="H62">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>26</v>
+          </cell>
+          <cell r="H63">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>26</v>
+          </cell>
+          <cell r="H64">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>26</v>
+          </cell>
+          <cell r="H65">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>26</v>
+          </cell>
+          <cell r="H66">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="G67">
+            <v>26</v>
+          </cell>
+          <cell r="H67">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="G68">
+            <v>30</v>
+          </cell>
+          <cell r="H68">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="G69">
+            <v>31</v>
+          </cell>
+          <cell r="H69">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="G70">
+            <v>35</v>
+          </cell>
+          <cell r="H70">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="G71">
+            <v>37</v>
+          </cell>
+          <cell r="H71">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="G72">
+            <v>41</v>
+          </cell>
+          <cell r="H72">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="G73">
+            <v>46</v>
+          </cell>
+          <cell r="H73">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="G74">
+            <v>49</v>
+          </cell>
+          <cell r="H74">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="G75">
+            <v>49</v>
+          </cell>
+          <cell r="H75">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="G76">
+            <v>49</v>
+          </cell>
+          <cell r="H76">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="G77">
+            <v>53</v>
+          </cell>
+          <cell r="H77">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="G78">
+            <v>62</v>
+          </cell>
+          <cell r="H78">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="G79">
+            <v>62</v>
+          </cell>
+          <cell r="H79">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="G80">
+            <v>62</v>
+          </cell>
+          <cell r="H80">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="G81">
+            <v>62</v>
+          </cell>
+          <cell r="H81">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="G82">
+            <v>62</v>
+          </cell>
+          <cell r="H82">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="G83">
+            <v>62</v>
+          </cell>
+          <cell r="H83">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="G84">
+            <v>62</v>
+          </cell>
+          <cell r="H84">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="G85">
+            <v>62</v>
+          </cell>
+          <cell r="H85">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="G86">
+            <v>62</v>
+          </cell>
+          <cell r="H86">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="G87">
+            <v>62</v>
+          </cell>
+          <cell r="H87">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="G88">
+            <v>62</v>
+          </cell>
+          <cell r="H88">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="G89">
+            <v>70</v>
+          </cell>
+          <cell r="H89">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="G90">
+            <v>70</v>
+          </cell>
+          <cell r="H90">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="G91">
+            <v>70</v>
+          </cell>
+          <cell r="H91">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="G92">
+            <v>74</v>
+          </cell>
+          <cell r="H92">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="G93">
+            <v>74</v>
+          </cell>
+          <cell r="H93">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="G94">
+            <v>74</v>
+          </cell>
+          <cell r="H94">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="G95">
+            <v>74</v>
+          </cell>
+          <cell r="H95">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="G96">
+            <v>74</v>
+          </cell>
+          <cell r="H96">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="G97">
+            <v>74</v>
+          </cell>
+          <cell r="H97">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="G98">
+            <v>74</v>
+          </cell>
+          <cell r="H98">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="G99">
+            <v>74</v>
+          </cell>
+          <cell r="H99">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="G100">
+            <v>74</v>
+          </cell>
+          <cell r="H100">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="G101">
+            <v>75</v>
+          </cell>
+          <cell r="H101">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="G102">
+            <v>77</v>
+          </cell>
+          <cell r="H102">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="G103">
+            <v>77</v>
+          </cell>
+          <cell r="H103">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="G104">
+            <v>78</v>
+          </cell>
+          <cell r="H104">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="G105">
+            <v>78</v>
+          </cell>
+          <cell r="H105">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="G106">
+            <v>79</v>
+          </cell>
+          <cell r="H106">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="G107">
+            <v>82</v>
+          </cell>
+          <cell r="H107">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="G108">
+            <v>83</v>
+          </cell>
+          <cell r="H108">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="G109">
+            <v>84</v>
+          </cell>
+          <cell r="H109">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="G110">
+            <v>84</v>
+          </cell>
+          <cell r="H110">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="G111">
+            <v>84</v>
+          </cell>
+          <cell r="H111">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="G112">
+            <v>84</v>
+          </cell>
+          <cell r="H112">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="G113">
+            <v>85</v>
+          </cell>
+          <cell r="H113">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="G114">
+            <v>86</v>
+          </cell>
+          <cell r="H114">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="G115">
+            <v>86</v>
+          </cell>
+          <cell r="H115">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="G116">
+            <v>86</v>
+          </cell>
+          <cell r="H116">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="G117">
+            <v>86</v>
+          </cell>
+          <cell r="H117">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="G118">
+            <v>86</v>
+          </cell>
+          <cell r="H118">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="G119">
+            <v>87</v>
+          </cell>
+          <cell r="H119">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="G120">
+            <v>87</v>
+          </cell>
+          <cell r="H120">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="G121">
+            <v>88</v>
+          </cell>
+          <cell r="H121">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="G122">
+            <v>88</v>
+          </cell>
+          <cell r="H122">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="G123">
+            <v>88</v>
+          </cell>
+          <cell r="H123">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="G124">
+            <v>89</v>
+          </cell>
+          <cell r="H124">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="G125">
+            <v>89</v>
+          </cell>
+          <cell r="H125">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="G126">
+            <v>89</v>
+          </cell>
+          <cell r="H126">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="G127">
+            <v>90</v>
+          </cell>
+          <cell r="H127">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="G128">
+            <v>92</v>
+          </cell>
+          <cell r="H128">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="G129">
+            <v>93</v>
+          </cell>
+          <cell r="H129">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="G130">
+            <v>94</v>
+          </cell>
+          <cell r="H130">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="G131">
+            <v>96</v>
+          </cell>
+          <cell r="H131">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="G132">
+            <v>96</v>
+          </cell>
+          <cell r="H132">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="G133">
+            <v>96</v>
+          </cell>
+          <cell r="H133">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="G134">
+            <v>96</v>
+          </cell>
+          <cell r="H134">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="G135">
+            <v>96</v>
+          </cell>
+          <cell r="H135">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="G136">
+            <v>96</v>
+          </cell>
+          <cell r="H136">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="G137">
+            <v>96</v>
+          </cell>
+          <cell r="H137">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="G138">
+            <v>97</v>
+          </cell>
+          <cell r="H138">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="G139">
+            <v>97</v>
+          </cell>
+          <cell r="H139">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="G140">
+            <v>97</v>
+          </cell>
+          <cell r="H140">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="G141">
+            <v>99</v>
+          </cell>
+          <cell r="H141">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="G142">
+            <v>100</v>
+          </cell>
+          <cell r="H142">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="G143">
+            <v>106</v>
+          </cell>
+          <cell r="H143">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="G144">
+            <v>107</v>
+          </cell>
+          <cell r="H144">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="G145">
+            <v>109</v>
+          </cell>
+          <cell r="H145">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="G146">
+            <v>109</v>
+          </cell>
+          <cell r="H146">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="G147">
+            <v>109</v>
+          </cell>
+          <cell r="H147">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="G148">
+            <v>109</v>
+          </cell>
+          <cell r="H148">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="G149">
+            <v>109</v>
+          </cell>
+          <cell r="H149">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="G150">
+            <v>109</v>
+          </cell>
+          <cell r="H150">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="G151">
+            <v>109</v>
+          </cell>
+          <cell r="H151">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="G152">
+            <v>109</v>
+          </cell>
+          <cell r="H152">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="G153">
+            <v>110</v>
+          </cell>
+          <cell r="H153">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="G154">
+            <v>110</v>
+          </cell>
+          <cell r="H154">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="G155">
+            <v>110</v>
+          </cell>
+          <cell r="H155">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="G156">
+            <v>110</v>
+          </cell>
+          <cell r="H156">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="G157">
+            <v>110</v>
+          </cell>
+          <cell r="H157">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="G158">
+            <v>110</v>
+          </cell>
+          <cell r="H158">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="G159">
+            <v>110</v>
+          </cell>
+          <cell r="H159">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="G160">
+            <v>110</v>
+          </cell>
+          <cell r="H160">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="G161">
+            <v>110</v>
+          </cell>
+          <cell r="H161">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="G162">
+            <v>110</v>
+          </cell>
+          <cell r="H162">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="G163">
+            <v>110</v>
+          </cell>
+          <cell r="H163">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="G164">
+            <v>110</v>
+          </cell>
+          <cell r="H164">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="G165">
+            <v>110</v>
+          </cell>
+          <cell r="H165">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="G166">
+            <v>110</v>
+          </cell>
+          <cell r="H166">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="G167">
+            <v>110</v>
+          </cell>
+          <cell r="H167">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="G168">
+            <v>110</v>
+          </cell>
+          <cell r="H168">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="G169">
+            <v>111</v>
+          </cell>
+          <cell r="H169">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="G170">
+            <v>112</v>
+          </cell>
+          <cell r="H170">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="G171">
+            <v>112</v>
+          </cell>
+          <cell r="H171">
+            <v>64</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5027,886 +7608,1292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74238123-9F9F-4401-AD95-B4F002078386}">
-  <dimension ref="A1:E171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD3C694-A103-49D4-8F0E-9242DF62223F}">
+  <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUM($B$2:C2)</f>
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUM($C$2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D3" s="3">
+        <f>SUM($B$2:C3)</f>
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUM($C$2:C3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM($B$2:C4)</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUM($C$2:C4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D5" s="3">
+        <f>SUM($B$2:C5)</f>
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <f>SUM($C$2:C5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D6" s="3">
+        <f>SUM($B$2:C6)</f>
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
+        <f>SUM($C$2:C6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D7" s="3">
+        <f>SUM($B$2:C7)</f>
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <f>SUM($C$2:C7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM($B$2:C8)</f>
+        <v>19</v>
+      </c>
+      <c r="E8" s="3">
+        <f>SUM($C$2:C8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM($B$2:C9)</f>
+        <v>21</v>
+      </c>
+      <c r="E9" s="3">
+        <f>SUM($C$2:C9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D10" s="3">
+        <f>SUM($B$2:C10)</f>
+        <v>21</v>
+      </c>
+      <c r="E10" s="3">
+        <f>SUM($C$2:C10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM($B$2:C11)</f>
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <f>SUM($C$2:C11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM($B$2:C12)</f>
+        <v>37</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUM($C$2:C12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM($B$2:C13)</f>
+        <v>46</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SUM($C$2:C13)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D14" s="3">
+        <f>SUM($B$2:C14)</f>
+        <v>46</v>
+      </c>
+      <c r="E14" s="3">
+        <f>SUM($C$2:C14)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D15" s="3">
+        <f>SUM($B$2:C15)</f>
+        <v>46</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM($C$2:C15)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D16" s="3">
+        <f>SUM($B$2:C16)</f>
+        <v>46</v>
+      </c>
+      <c r="E16" s="3">
+        <f>SUM($C$2:C16)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D17" s="3">
+        <f>SUM($B$2:C17)</f>
+        <v>58</v>
+      </c>
+      <c r="E17" s="3">
+        <f>SUM($C$2:C17)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="3">
+        <f>SUM($B$2:C18)</f>
+        <v>58</v>
+      </c>
+      <c r="E18" s="3">
+        <f>SUM($C$2:C18)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="3">
+        <f>SUM($B$2:C19)</f>
+        <v>58</v>
+      </c>
+      <c r="E19" s="3">
+        <f>SUM($C$2:C19)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM($B$2:C20)</f>
+        <v>59</v>
+      </c>
+      <c r="E20" s="3">
+        <f>SUM($C$2:C20)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM($B$2:C21)</f>
+        <v>61</v>
+      </c>
+      <c r="E21" s="3">
+        <f>SUM($C$2:C21)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM($B$2:C22)</f>
+        <v>62</v>
+      </c>
+      <c r="E22" s="3">
+        <f>SUM($C$2:C22)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="3">
+        <f>SUM($B$2:C23)</f>
+        <v>62</v>
+      </c>
+      <c r="E23" s="3">
+        <f>SUM($C$2:C23)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="3">
+        <f>SUM($B$2:C24)</f>
+        <v>62</v>
+      </c>
+      <c r="E24" s="3">
+        <f>SUM($C$2:C24)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="3">
+        <f>SUM($B$2:C25)</f>
+        <v>62</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUM($C$2:C25)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <f>SUM($B$2:C26)</f>
+        <v>63</v>
+      </c>
+      <c r="E26" s="3">
+        <f>SUM($C$2:C26)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <f>SUM($B$2:C27)</f>
+        <v>67</v>
+      </c>
+      <c r="E27" s="3">
+        <f>SUM($C$2:C27)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <f>SUM($B$2:C28)</f>
+        <v>68</v>
+      </c>
+      <c r="E28" s="3">
+        <f>SUM($C$2:C28)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="3">
+        <f>SUM($B$2:C29)</f>
+        <v>68</v>
+      </c>
+      <c r="E29" s="3">
+        <f>SUM($C$2:C29)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <f>SUM($B$2:C30)</f>
+        <v>69</v>
+      </c>
+      <c r="E30" s="3">
+        <f>SUM($C$2:C30)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="D31" s="3">
+        <f>SUM($B$2:C31)</f>
+        <v>69</v>
+      </c>
+      <c r="E31" s="3">
+        <f>SUM($C$2:C31)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="3">
+        <f>SUM($B$2:C32)</f>
+        <v>69</v>
+      </c>
+      <c r="E32" s="3">
+        <f>SUM($C$2:C32)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="3">
+        <f>SUM($B$2:C33)</f>
+        <v>69</v>
+      </c>
+      <c r="E33" s="3">
+        <f>SUM($C$2:C33)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="3">
+        <f>SUM($B$2:C34)</f>
+        <v>69</v>
+      </c>
+      <c r="E34" s="3">
+        <f>SUM($C$2:C34)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <f>SUM($B$2:C35)</f>
+        <v>70</v>
+      </c>
+      <c r="E35" s="3">
+        <f>SUM($C$2:C35)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="3">
+        <f>SUM($B$2:C36)</f>
+        <v>70</v>
+      </c>
+      <c r="E36" s="3">
+        <f>SUM($C$2:C36)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="3">
+        <f>SUM($B$2:C37)</f>
+        <v>70</v>
+      </c>
+      <c r="E37" s="3">
+        <f>SUM($C$2:C37)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="3">
+        <f>SUM($B$2:C38)</f>
+        <v>70</v>
+      </c>
+      <c r="E38" s="3">
+        <f>SUM($C$2:C38)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="3">
+        <f>SUM($B$2:C39)</f>
+        <v>70</v>
+      </c>
+      <c r="E39" s="3">
+        <f>SUM($C$2:C39)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="3">
+        <f>SUM($B$2:C40)</f>
+        <v>70</v>
+      </c>
+      <c r="E40" s="3">
+        <f>SUM($C$2:C40)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f>SUM($B$2:C41)</f>
+        <v>70</v>
+      </c>
+      <c r="E41" s="3">
+        <f>SUM($C$2:C41)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="3">
+        <f>SUM($B$2:C42)</f>
+        <v>70</v>
+      </c>
+      <c r="E42" s="3">
+        <f>SUM($C$2:C42)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="3">
+        <f>SUM($B$2:C43)</f>
+        <v>70</v>
+      </c>
+      <c r="E43" s="3">
+        <f>SUM($C$2:C43)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="3">
+        <f>SUM($B$2:C44)</f>
+        <v>70</v>
+      </c>
+      <c r="E44" s="3">
+        <f>SUM($C$2:C44)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D45" s="3">
+        <f>SUM($B$2:C45)</f>
+        <v>70</v>
+      </c>
+      <c r="E45" s="3">
+        <f>SUM($C$2:C45)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <f>SUM($B$2:C46)</f>
+        <v>71</v>
+      </c>
+      <c r="E46" s="3">
+        <f>SUM($C$2:C46)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="3">
+        <f>SUM($B$2:C47)</f>
+        <v>71</v>
+      </c>
+      <c r="E47" s="3">
+        <f>SUM($C$2:C47)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="3">
+        <f>SUM($B$2:C48)</f>
+        <v>71</v>
+      </c>
+      <c r="E48" s="3">
+        <f>SUM($C$2:C48)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D49" s="3">
+        <f>SUM($B$2:C49)</f>
+        <v>71</v>
+      </c>
+      <c r="E49" s="3">
+        <f>SUM($C$2:C49)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D50" s="3">
+        <f>SUM($B$2:C50)</f>
+        <v>71</v>
+      </c>
+      <c r="E50" s="3">
+        <f>SUM($C$2:C50)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3">
+        <f>SUM($B$2:C51)</f>
+        <v>71</v>
+      </c>
+      <c r="E51" s="3">
+        <f>SUM($C$2:C51)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <f>SUM($B$2:C52)</f>
+        <v>72</v>
+      </c>
+      <c r="E52" s="3">
+        <f>SUM($C$2:C52)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <f>SUM($B$2:C53)</f>
+        <v>73</v>
+      </c>
+      <c r="E53" s="3">
+        <f>SUM($C$2:C53)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D54" s="3">
+        <f>SUM($B$2:C54)</f>
+        <v>73</v>
+      </c>
+      <c r="E54" s="3">
+        <f>SUM($C$2:C54)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D55" s="3">
+        <f>SUM($B$2:C55)</f>
+        <v>73</v>
+      </c>
+      <c r="E55" s="3">
+        <f>SUM($C$2:C55)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D56" s="3">
+        <f>SUM($B$2:C56)</f>
+        <v>73</v>
+      </c>
+      <c r="E56" s="3">
+        <f>SUM($C$2:C56)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="3">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <f>SUM($B$2:C57)</f>
+        <v>80</v>
+      </c>
+      <c r="E57" s="3">
+        <f>SUM($C$2:C57)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <f>SUM($B$2:C58)</f>
+        <v>81</v>
+      </c>
+      <c r="E58" s="3">
+        <f>SUM($C$2:C58)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D59" s="3">
+        <f>SUM($B$2:C59)</f>
+        <v>81</v>
+      </c>
+      <c r="E59" s="3">
+        <f>SUM($C$2:C59)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D60" s="3">
+        <f>SUM($B$2:C60)</f>
+        <v>81</v>
+      </c>
+      <c r="E60" s="3">
+        <f>SUM($C$2:C60)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3">
+        <f>SUM($B$2:C61)</f>
+        <v>81</v>
+      </c>
+      <c r="E61" s="3">
+        <f>SUM($C$2:C61)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D62" s="3">
+        <f>SUM($B$2:C62)</f>
+        <v>81</v>
+      </c>
+      <c r="E62" s="3">
+        <f>SUM($C$2:C62)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D63" s="3">
+        <f>SUM($B$2:C63)</f>
+        <v>81</v>
+      </c>
+      <c r="E63" s="3">
+        <f>SUM($C$2:C63)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D64" s="3">
+        <f>SUM($B$2:C64)</f>
+        <v>81</v>
+      </c>
+      <c r="E64" s="3">
+        <f>SUM($C$2:C64)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D65" s="3">
+        <f>SUM($B$2:C65)</f>
+        <v>81</v>
+      </c>
+      <c r="E65" s="3">
+        <f>SUM($C$2:C65)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D66" s="3">
+        <f>SUM($B$2:C66)</f>
+        <v>81</v>
+      </c>
+      <c r="E66" s="3">
+        <f>SUM($C$2:C66)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="D67" s="3">
+        <f>SUM($B$2:C67)</f>
+        <v>83</v>
+      </c>
+      <c r="E67" s="3">
+        <f>SUM($C$2:C67)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D68" s="3">
+        <f>SUM($B$2:C68)</f>
+        <v>83</v>
+      </c>
+      <c r="E68" s="3">
+        <f>SUM($C$2:C68)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>10</v>
+      </c>
+      <c r="D69" s="3">
+        <f>SUM($B$2:C69)</f>
+        <v>93</v>
+      </c>
+      <c r="E69" s="3">
+        <f>SUM($C$2:C69)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D70" s="3">
+        <f>SUM($B$2:C70)</f>
+        <v>93</v>
+      </c>
+      <c r="E70" s="3">
+        <f>SUM($C$2:C70)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3">
+        <f>SUM($B$2:C71)</f>
+        <v>93</v>
+      </c>
+      <c r="E71" s="3">
+        <f>SUM($C$2:C71)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D72" s="3">
+        <f>SUM($B$2:C72)</f>
+        <v>93</v>
+      </c>
+      <c r="E72" s="3">
+        <f>SUM($C$2:C72)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D73" s="3">
+        <f>SUM($B$2:C73)</f>
+        <v>93</v>
+      </c>
+      <c r="E73" s="3">
+        <f>SUM($C$2:C73)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <f>SUM($B$2:C74)</f>
+        <v>93</v>
+      </c>
+      <c r="E74" s="3">
+        <f>SUM($C$2:C74)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D75" s="3">
+        <f>SUM($B$2:C75)</f>
+        <v>93</v>
+      </c>
+      <c r="E75" s="3">
+        <f>SUM($C$2:C75)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D76" s="3">
+        <f>SUM($B$2:C76)</f>
+        <v>93</v>
+      </c>
+      <c r="E76" s="3">
+        <f>SUM($C$2:C76)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D77" s="3">
+        <f>SUM($B$2:C77)</f>
+        <v>93</v>
+      </c>
+      <c r="E77" s="3">
+        <f>SUM($C$2:C77)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D78" s="3">
+        <f>SUM($B$2:C78)</f>
+        <v>93</v>
+      </c>
+      <c r="E78" s="3">
+        <f>SUM($C$2:C78)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D79" s="3">
+        <f>SUM($B$2:C79)</f>
+        <v>93</v>
+      </c>
+      <c r="E79" s="3">
+        <f>SUM($C$2:C79)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D80" s="3">
+        <f>SUM($B$2:C80)</f>
+        <v>93</v>
+      </c>
+      <c r="E80" s="3">
+        <f>SUM($C$2:C80)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="D81" s="3">
+        <f>SUM($B$2:C81)</f>
+        <v>93</v>
+      </c>
+      <c r="E81" s="3">
+        <f>SUM($C$2:C81)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <f>SUM($B$2:C82)</f>
+        <v>93</v>
+      </c>
+      <c r="E82" s="3">
+        <f>SUM($C$2:C82)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D83" s="3">
+        <f>SUM($B$2:C83)</f>
+        <v>93</v>
+      </c>
+      <c r="E83" s="3">
+        <f>SUM($C$2:C83)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D84" s="3">
+        <f>SUM($B$2:C84)</f>
+        <v>93</v>
+      </c>
+      <c r="E84" s="3">
+        <f>SUM($C$2:C84)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3">
+        <f>SUM($B$2:C85)</f>
+        <v>94</v>
+      </c>
+      <c r="E85" s="3">
+        <f>SUM($C$2:C85)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <f>SUM($B$2:C86)</f>
+        <v>94</v>
+      </c>
+      <c r="E86" s="3">
+        <f>SUM($C$2:C86)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <f>SUM($B$2:C87)</f>
+        <v>94</v>
+      </c>
+      <c r="E87" s="3">
+        <f>SUM($C$2:C87)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D88" s="3">
+        <f>SUM($B$2:C88)</f>
+        <v>94</v>
+      </c>
+      <c r="E88" s="3">
+        <f>SUM($C$2:C88)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D89" s="3">
+        <f>SUM($B$2:C89)</f>
+        <v>94</v>
+      </c>
+      <c r="E89" s="3">
+        <f>SUM($C$2:C89)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <f>SUM($B$2:C90)</f>
+        <v>94</v>
+      </c>
+      <c r="E90" s="3">
+        <f>SUM($C$2:C90)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <f>SUM($B$2:C91)</f>
+        <v>94</v>
+      </c>
+      <c r="E91" s="3">
+        <f>SUM($C$2:C91)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D92" s="3">
+        <f>SUM($B$2:C92)</f>
+        <v>94</v>
+      </c>
+      <c r="E92" s="3">
+        <f>SUM($C$2:C92)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D93" s="3">
+        <f>SUM($B$2:C93)</f>
+        <v>94</v>
+      </c>
+      <c r="E93" s="3">
+        <f>SUM($C$2:C93)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3">
+        <f>SUM($B$2:C94)</f>
+        <v>95</v>
+      </c>
+      <c r="E94" s="3">
+        <f>SUM($C$2:C94)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D95" s="3">
+        <f>SUM($B$2:C95)</f>
+        <v>95</v>
+      </c>
+      <c r="E95" s="3">
+        <f>SUM($C$2:C95)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D96" s="3">
+        <f>SUM($B$2:C96)</f>
+        <v>95</v>
+      </c>
+      <c r="E96" s="3">
+        <f>SUM($C$2:C96)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D97" s="3">
+        <f>SUM($B$2:C97)</f>
+        <v>95</v>
+      </c>
+      <c r="E97" s="3">
+        <f>SUM($C$2:C97)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D98" s="3">
+        <f>SUM($B$2:C98)</f>
+        <v>95</v>
+      </c>
+      <c r="E98" s="3">
+        <f>SUM($C$2:C98)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D99" s="3">
+        <f>SUM($B$2:C99)</f>
+        <v>95</v>
+      </c>
+      <c r="E99" s="3">
+        <f>SUM($C$2:C99)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D100" s="3">
+        <f>SUM($B$2:C100)</f>
+        <v>95</v>
+      </c>
+      <c r="E100" s="3">
+        <f>SUM($C$2:C100)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <f>SUM($B$2:C101)</f>
+        <v>96</v>
+      </c>
+      <c r="E101" s="3">
+        <f>SUM($C$2:C101)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D102" s="3">
+        <f>SUM($B$2:C102)</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>174</v>
+      <c r="E102" s="3">
+        <f>SUM($C$2:C102)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D103" s="3">
+        <f>SUM($B$2:C103)</f>
+        <v>96</v>
+      </c>
+      <c r="E103" s="3">
+        <f>SUM($C$2:C103)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D104" s="3">
+        <f>SUM($B$2:C104)</f>
+        <v>96</v>
+      </c>
+      <c r="E104" s="3">
+        <f>SUM($C$2:C104)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D105" s="3">
+        <f>SUM($B$2:C105)</f>
+        <v>96</v>
+      </c>
+      <c r="E105" s="3">
+        <f>SUM($C$2:C105)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B195" s="3">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3">
+        <f>SUM($B$2:C195)</f>
+        <v>96</v>
+      </c>
+      <c r="E195" s="3">
+        <f>SUM($C$2:C195)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D196" s="3">
+        <f>SUM($B$2:C196)</f>
+        <v>96</v>
+      </c>
+      <c r="E196" s="3">
+        <f>SUM($C$2:C196)</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Presentation/Presentation-Graph_example.xlsx
+++ b/Presentation/Presentation-Graph_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trang\Google Drive\UQAM\Courses\BIO6065_ET20\DDES-GitHub\VirtualBiogeography\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9416ED2-A657-4268-A25D-B16C394FDE6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CC13A-6981-42FE-BE41-1292B83F33E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalV.Unidentifiable" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Final-graph" sheetId="6" r:id="rId4"/>
     <sheet name="graph-data" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -119,11 +116,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2115,286 +2112,286 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>67</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>69</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>69</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>69</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>70</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>71</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>71</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>71</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>71</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>71</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>72</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>73</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>73</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>73</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>73</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>80</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>81</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>94</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>96</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>96</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>96</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>96</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>96</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,286 +2500,286 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>32</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>33</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>36</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>46</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>47</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>48</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>48</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>48</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>48</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>48</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2913,7 +2910,7 @@
         <c:axId val="175021672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="120"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5340,7 +5337,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D293CD1D-B917-47E5-BF4D-13508E21469E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5458,7 +5455,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671719" cy="6290469"/>
+    <xdr:ext cx="8667750" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5485,1380 +5482,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="screenshot_analysis_status"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="G2">
-            <v>1</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3">
-            <v>2</v>
-          </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4">
-            <v>7</v>
-          </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5">
-            <v>8</v>
-          </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6">
-            <v>12</v>
-          </cell>
-          <cell r="H6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7">
-            <v>13</v>
-          </cell>
-          <cell r="H7">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8">
-            <v>13</v>
-          </cell>
-          <cell r="H8">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9">
-            <v>14</v>
-          </cell>
-          <cell r="H9">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10">
-            <v>14</v>
-          </cell>
-          <cell r="H10">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11">
-            <v>14</v>
-          </cell>
-          <cell r="H11">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>14</v>
-          </cell>
-          <cell r="H12">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>14</v>
-          </cell>
-          <cell r="H13">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>14</v>
-          </cell>
-          <cell r="H14">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>14</v>
-          </cell>
-          <cell r="H15">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16">
-            <v>15</v>
-          </cell>
-          <cell r="H16">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17">
-            <v>15</v>
-          </cell>
-          <cell r="H17">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18">
-            <v>15</v>
-          </cell>
-          <cell r="H18">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19">
-            <v>15</v>
-          </cell>
-          <cell r="H19">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20">
-            <v>15</v>
-          </cell>
-          <cell r="H20">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21">
-            <v>15</v>
-          </cell>
-          <cell r="H21">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22">
-            <v>15</v>
-          </cell>
-          <cell r="H22">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>15</v>
-          </cell>
-          <cell r="H23">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>15</v>
-          </cell>
-          <cell r="H24">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>15</v>
-          </cell>
-          <cell r="H25">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>18</v>
-          </cell>
-          <cell r="H26">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="G27">
-            <v>18</v>
-          </cell>
-          <cell r="H27">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28">
-            <v>18</v>
-          </cell>
-          <cell r="H28">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29">
-            <v>18</v>
-          </cell>
-          <cell r="H29">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="G30">
-            <v>19</v>
-          </cell>
-          <cell r="H30">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="G31">
-            <v>19</v>
-          </cell>
-          <cell r="H31">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32">
-            <v>19</v>
-          </cell>
-          <cell r="H32">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="G33">
-            <v>19</v>
-          </cell>
-          <cell r="H33">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="G34">
-            <v>19</v>
-          </cell>
-          <cell r="H34">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="G35">
-            <v>19</v>
-          </cell>
-          <cell r="H35">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="G36">
-            <v>20</v>
-          </cell>
-          <cell r="H36">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="G37">
-            <v>20</v>
-          </cell>
-          <cell r="H37">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="G38">
-            <v>20</v>
-          </cell>
-          <cell r="H38">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="G39">
-            <v>21</v>
-          </cell>
-          <cell r="H39">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="G40">
-            <v>21</v>
-          </cell>
-          <cell r="H40">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="G41">
-            <v>21</v>
-          </cell>
-          <cell r="H41">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="G42">
-            <v>21</v>
-          </cell>
-          <cell r="H42">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="G43">
-            <v>21</v>
-          </cell>
-          <cell r="H43">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="G44">
-            <v>21</v>
-          </cell>
-          <cell r="H44">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="G45">
-            <v>23</v>
-          </cell>
-          <cell r="H45">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46">
-            <v>23</v>
-          </cell>
-          <cell r="H46">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="G47">
-            <v>23</v>
-          </cell>
-          <cell r="H47">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48">
-            <v>23</v>
-          </cell>
-          <cell r="H48">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="G49">
-            <v>23</v>
-          </cell>
-          <cell r="H49">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50">
-            <v>23</v>
-          </cell>
-          <cell r="H50">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="G51">
-            <v>24</v>
-          </cell>
-          <cell r="H51">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52">
-            <v>24</v>
-          </cell>
-          <cell r="H52">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53">
-            <v>24</v>
-          </cell>
-          <cell r="H53">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>25</v>
-          </cell>
-          <cell r="H54">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55">
-            <v>25</v>
-          </cell>
-          <cell r="H55">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56">
-            <v>25</v>
-          </cell>
-          <cell r="H56">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="G57">
-            <v>25</v>
-          </cell>
-          <cell r="H57">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="G58">
-            <v>25</v>
-          </cell>
-          <cell r="H58">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="G59">
-            <v>25</v>
-          </cell>
-          <cell r="H59">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="G60">
-            <v>26</v>
-          </cell>
-          <cell r="H60">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="G61">
-            <v>26</v>
-          </cell>
-          <cell r="H61">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="G62">
-            <v>26</v>
-          </cell>
-          <cell r="H62">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="G63">
-            <v>26</v>
-          </cell>
-          <cell r="H63">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="G64">
-            <v>26</v>
-          </cell>
-          <cell r="H64">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="G65">
-            <v>26</v>
-          </cell>
-          <cell r="H65">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="G66">
-            <v>26</v>
-          </cell>
-          <cell r="H66">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="G67">
-            <v>26</v>
-          </cell>
-          <cell r="H67">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="G68">
-            <v>30</v>
-          </cell>
-          <cell r="H68">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="G69">
-            <v>31</v>
-          </cell>
-          <cell r="H69">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="G70">
-            <v>35</v>
-          </cell>
-          <cell r="H70">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="G71">
-            <v>37</v>
-          </cell>
-          <cell r="H71">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="G72">
-            <v>41</v>
-          </cell>
-          <cell r="H72">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="G73">
-            <v>46</v>
-          </cell>
-          <cell r="H73">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="G74">
-            <v>49</v>
-          </cell>
-          <cell r="H74">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="G75">
-            <v>49</v>
-          </cell>
-          <cell r="H75">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="G76">
-            <v>49</v>
-          </cell>
-          <cell r="H76">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="G77">
-            <v>53</v>
-          </cell>
-          <cell r="H77">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="G78">
-            <v>62</v>
-          </cell>
-          <cell r="H78">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="G79">
-            <v>62</v>
-          </cell>
-          <cell r="H79">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="G80">
-            <v>62</v>
-          </cell>
-          <cell r="H80">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="G81">
-            <v>62</v>
-          </cell>
-          <cell r="H81">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="G82">
-            <v>62</v>
-          </cell>
-          <cell r="H82">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="G83">
-            <v>62</v>
-          </cell>
-          <cell r="H83">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="G84">
-            <v>62</v>
-          </cell>
-          <cell r="H84">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="G85">
-            <v>62</v>
-          </cell>
-          <cell r="H85">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="G86">
-            <v>62</v>
-          </cell>
-          <cell r="H86">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="G87">
-            <v>62</v>
-          </cell>
-          <cell r="H87">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="G88">
-            <v>62</v>
-          </cell>
-          <cell r="H88">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="G89">
-            <v>70</v>
-          </cell>
-          <cell r="H89">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="G90">
-            <v>70</v>
-          </cell>
-          <cell r="H90">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="G91">
-            <v>70</v>
-          </cell>
-          <cell r="H91">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="G92">
-            <v>74</v>
-          </cell>
-          <cell r="H92">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="G93">
-            <v>74</v>
-          </cell>
-          <cell r="H93">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="G94">
-            <v>74</v>
-          </cell>
-          <cell r="H94">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="G95">
-            <v>74</v>
-          </cell>
-          <cell r="H95">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="G96">
-            <v>74</v>
-          </cell>
-          <cell r="H96">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="G97">
-            <v>74</v>
-          </cell>
-          <cell r="H97">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="G98">
-            <v>74</v>
-          </cell>
-          <cell r="H98">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="G99">
-            <v>74</v>
-          </cell>
-          <cell r="H99">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="G100">
-            <v>74</v>
-          </cell>
-          <cell r="H100">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="G101">
-            <v>75</v>
-          </cell>
-          <cell r="H101">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="G102">
-            <v>77</v>
-          </cell>
-          <cell r="H102">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="G103">
-            <v>77</v>
-          </cell>
-          <cell r="H103">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="G104">
-            <v>78</v>
-          </cell>
-          <cell r="H104">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="G105">
-            <v>78</v>
-          </cell>
-          <cell r="H105">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="G106">
-            <v>79</v>
-          </cell>
-          <cell r="H106">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="G107">
-            <v>82</v>
-          </cell>
-          <cell r="H107">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="G108">
-            <v>83</v>
-          </cell>
-          <cell r="H108">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="G109">
-            <v>84</v>
-          </cell>
-          <cell r="H109">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="G110">
-            <v>84</v>
-          </cell>
-          <cell r="H110">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="G111">
-            <v>84</v>
-          </cell>
-          <cell r="H111">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="G112">
-            <v>84</v>
-          </cell>
-          <cell r="H112">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="G113">
-            <v>85</v>
-          </cell>
-          <cell r="H113">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="G114">
-            <v>86</v>
-          </cell>
-          <cell r="H114">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="G115">
-            <v>86</v>
-          </cell>
-          <cell r="H115">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="G116">
-            <v>86</v>
-          </cell>
-          <cell r="H116">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="G117">
-            <v>86</v>
-          </cell>
-          <cell r="H117">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="G118">
-            <v>86</v>
-          </cell>
-          <cell r="H118">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="G119">
-            <v>87</v>
-          </cell>
-          <cell r="H119">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="G120">
-            <v>87</v>
-          </cell>
-          <cell r="H120">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="G121">
-            <v>88</v>
-          </cell>
-          <cell r="H121">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="G122">
-            <v>88</v>
-          </cell>
-          <cell r="H122">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="G123">
-            <v>88</v>
-          </cell>
-          <cell r="H123">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="G124">
-            <v>89</v>
-          </cell>
-          <cell r="H124">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="G125">
-            <v>89</v>
-          </cell>
-          <cell r="H125">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="G126">
-            <v>89</v>
-          </cell>
-          <cell r="H126">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="G127">
-            <v>90</v>
-          </cell>
-          <cell r="H127">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="G128">
-            <v>92</v>
-          </cell>
-          <cell r="H128">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="G129">
-            <v>93</v>
-          </cell>
-          <cell r="H129">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="G130">
-            <v>94</v>
-          </cell>
-          <cell r="H130">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="G131">
-            <v>96</v>
-          </cell>
-          <cell r="H131">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="G132">
-            <v>96</v>
-          </cell>
-          <cell r="H132">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="G133">
-            <v>96</v>
-          </cell>
-          <cell r="H133">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="G134">
-            <v>96</v>
-          </cell>
-          <cell r="H134">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="G135">
-            <v>96</v>
-          </cell>
-          <cell r="H135">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="G136">
-            <v>96</v>
-          </cell>
-          <cell r="H136">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="G137">
-            <v>96</v>
-          </cell>
-          <cell r="H137">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="G138">
-            <v>97</v>
-          </cell>
-          <cell r="H138">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="G139">
-            <v>97</v>
-          </cell>
-          <cell r="H139">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="G140">
-            <v>97</v>
-          </cell>
-          <cell r="H140">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="G141">
-            <v>99</v>
-          </cell>
-          <cell r="H141">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="G142">
-            <v>100</v>
-          </cell>
-          <cell r="H142">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="G143">
-            <v>106</v>
-          </cell>
-          <cell r="H143">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="G144">
-            <v>107</v>
-          </cell>
-          <cell r="H144">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="G145">
-            <v>109</v>
-          </cell>
-          <cell r="H145">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="G146">
-            <v>109</v>
-          </cell>
-          <cell r="H146">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="G147">
-            <v>109</v>
-          </cell>
-          <cell r="H147">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="G148">
-            <v>109</v>
-          </cell>
-          <cell r="H148">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="G149">
-            <v>109</v>
-          </cell>
-          <cell r="H149">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="G150">
-            <v>109</v>
-          </cell>
-          <cell r="H150">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="G151">
-            <v>109</v>
-          </cell>
-          <cell r="H151">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="G152">
-            <v>109</v>
-          </cell>
-          <cell r="H152">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="G153">
-            <v>110</v>
-          </cell>
-          <cell r="H153">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="G154">
-            <v>110</v>
-          </cell>
-          <cell r="H154">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="G155">
-            <v>110</v>
-          </cell>
-          <cell r="H155">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="G156">
-            <v>110</v>
-          </cell>
-          <cell r="H156">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="G157">
-            <v>110</v>
-          </cell>
-          <cell r="H157">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="G158">
-            <v>110</v>
-          </cell>
-          <cell r="H158">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="G159">
-            <v>110</v>
-          </cell>
-          <cell r="H159">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="G160">
-            <v>110</v>
-          </cell>
-          <cell r="H160">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="G161">
-            <v>110</v>
-          </cell>
-          <cell r="H161">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="G162">
-            <v>110</v>
-          </cell>
-          <cell r="H162">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="G163">
-            <v>110</v>
-          </cell>
-          <cell r="H163">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="G164">
-            <v>110</v>
-          </cell>
-          <cell r="H164">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="G165">
-            <v>110</v>
-          </cell>
-          <cell r="H165">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="G166">
-            <v>110</v>
-          </cell>
-          <cell r="H166">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="G167">
-            <v>110</v>
-          </cell>
-          <cell r="H167">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="G168">
-            <v>110</v>
-          </cell>
-          <cell r="H168">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="G169">
-            <v>111</v>
-          </cell>
-          <cell r="H169">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="G170">
-            <v>112</v>
-          </cell>
-          <cell r="H170">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="G171">
-            <v>112</v>
-          </cell>
-          <cell r="H171">
-            <v>64</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7126,7 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="67" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -7611,16 +6234,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD3C694-A103-49D4-8F0E-9242DF62223F}">
   <dimension ref="A1:Q196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="12.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7639,1255 +6262,1259 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>11</f>
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>SUM($B$2:C2)</f>
         <v>14</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>SUM($C$2)</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>SUM($B$2:C3)</f>
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>SUM($C$2:C3)</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM($B$2:C4)</f>
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>SUM($C$2:C4)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>SUM($B$2:C5)</f>
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>SUM($C$2:C5)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>SUM($B$2:C6)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>SUM($C$2:C6)</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f>SUM($B$2:C7)</f>
         <v>15</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>SUM($C$2:C7)</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f>SUM($B$2:C8)</f>
         <v>19</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f>SUM($C$2:C8)</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f>SUM($B$2:C9)</f>
         <v>21</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f>SUM($C$2:C9)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>SUM($B$2:C10)</f>
         <v>21</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f>SUM($C$2:C10)</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>SUM($B$2:C11)</f>
         <v>24</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>SUM($C$2:C11)</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM($B$2:C12)</f>
+        <v>53</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM($C$2:C12)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
-        <f>SUM($B$2:C12)</f>
+      <c r="D13" s="2">
+        <f>SUM($B$2:C13)</f>
+        <v>62</v>
+      </c>
+      <c r="E13" s="2">
+        <f>SUM($C$2:C13)</f>
         <v>37</v>
       </c>
-      <c r="E12" s="3">
-        <f>SUM($C$2:C12)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <f>SUM($B$2:C14)</f>
+        <v>62</v>
+      </c>
+      <c r="E14" s="2">
+        <f>SUM($C$2:C14)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D15" s="2">
+        <f>SUM($B$2:C15)</f>
+        <v>62</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM($C$2:C15)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D16" s="2">
+        <f>SUM($B$2:C16)</f>
+        <v>62</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM($C$2:C16)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM($B$2:C17)</f>
+        <v>74</v>
+      </c>
+      <c r="E17" s="2">
+        <f>SUM($C$2:C17)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="2">
+        <f>SUM($B$2:C18)</f>
+        <v>74</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUM($C$2:C18)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <f>SUM($B$2:C19)</f>
+        <v>74</v>
+      </c>
+      <c r="E19" s="2">
+        <f>SUM($C$2:C19)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <f>SUM($B$2:C13)</f>
-        <v>46</v>
-      </c>
-      <c r="E13" s="3">
-        <f>SUM($C$2:C13)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D14" s="3">
-        <f>SUM($B$2:C14)</f>
-        <v>46</v>
-      </c>
-      <c r="E14" s="3">
-        <f>SUM($C$2:C14)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D15" s="3">
-        <f>SUM($B$2:C15)</f>
-        <v>46</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SUM($C$2:C15)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="D16" s="3">
-        <f>SUM($B$2:C16)</f>
-        <v>46</v>
-      </c>
-      <c r="E16" s="3">
-        <f>SUM($C$2:C16)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
+      <c r="D20" s="2">
+        <f>SUM($B$2:C20)</f>
+        <v>75</v>
+      </c>
+      <c r="E20" s="2">
+        <f>SUM($C$2:C20)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM($B$2:C21)</f>
+        <v>77</v>
+      </c>
+      <c r="E21" s="2">
+        <f>SUM($C$2:C21)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3">
-        <f>SUM($B$2:C17)</f>
-        <v>58</v>
-      </c>
-      <c r="E17" s="3">
-        <f>SUM($C$2:C17)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="3">
-        <f>SUM($B$2:C18)</f>
-        <v>58</v>
-      </c>
-      <c r="E18" s="3">
-        <f>SUM($C$2:C18)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="3">
-        <f>SUM($B$2:C19)</f>
-        <v>58</v>
-      </c>
-      <c r="E19" s="3">
-        <f>SUM($C$2:C19)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
+      <c r="D22" s="2">
+        <f>SUM($B$2:C22)</f>
+        <v>78</v>
+      </c>
+      <c r="E22" s="2">
+        <f>SUM($C$2:C22)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="2">
+        <f>SUM($B$2:C23)</f>
+        <v>78</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SUM($C$2:C23)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="2">
+        <f>SUM($B$2:C24)</f>
+        <v>78</v>
+      </c>
+      <c r="E24" s="2">
+        <f>SUM($C$2:C24)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="2">
+        <f>SUM($B$2:C25)</f>
+        <v>78</v>
+      </c>
+      <c r="E25" s="2">
+        <f>SUM($C$2:C25)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D26" s="2">
+        <f>SUM($B$2:C26)</f>
+        <v>79</v>
+      </c>
+      <c r="E26" s="2">
+        <f>SUM($C$2:C26)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="2">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <f>SUM($B$2:C20)</f>
-        <v>59</v>
-      </c>
-      <c r="E20" s="3">
-        <f>SUM($C$2:C20)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
+      <c r="D27" s="2">
+        <f>SUM($B$2:C27)</f>
+        <v>83</v>
+      </c>
+      <c r="E27" s="2">
+        <f>SUM($C$2:C27)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <f>SUM($B$2:C28)</f>
+        <v>84</v>
+      </c>
+      <c r="E28" s="2">
+        <f>SUM($C$2:C28)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" s="2">
+        <f>SUM($B$2:C29)</f>
+        <v>84</v>
+      </c>
+      <c r="E29" s="2">
+        <f>SUM($C$2:C29)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <f>SUM($B$2:C30)</f>
+        <v>85</v>
+      </c>
+      <c r="E30" s="2">
+        <f>SUM($C$2:C30)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2">
+        <f>SUM($B$2:C31)</f>
+        <v>85</v>
+      </c>
+      <c r="E31" s="2">
+        <f>SUM($C$2:C31)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D32" s="2">
+        <f>SUM($B$2:C32)</f>
+        <v>85</v>
+      </c>
+      <c r="E32" s="2">
+        <f>SUM($C$2:C32)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D33" s="2">
+        <f>SUM($B$2:C33)</f>
+        <v>85</v>
+      </c>
+      <c r="E33" s="2">
+        <f>SUM($C$2:C33)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="2">
+        <f>SUM($B$2:C34)</f>
+        <v>85</v>
+      </c>
+      <c r="E34" s="2">
+        <f>SUM($C$2:C34)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <f>SUM($B$2:C35)</f>
+        <v>86</v>
+      </c>
+      <c r="E35" s="2">
+        <f>SUM($C$2:C35)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="2">
+        <f>SUM($B$2:C36)</f>
+        <v>86</v>
+      </c>
+      <c r="E36" s="2">
+        <f>SUM($C$2:C36)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D37" s="2">
+        <f>SUM($B$2:C37)</f>
+        <v>86</v>
+      </c>
+      <c r="E37" s="2">
+        <f>SUM($C$2:C37)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D38" s="2">
+        <f>SUM($B$2:C38)</f>
+        <v>86</v>
+      </c>
+      <c r="E38" s="2">
+        <f>SUM($C$2:C38)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D39" s="2">
+        <f>SUM($B$2:C39)</f>
+        <v>86</v>
+      </c>
+      <c r="E39" s="2">
+        <f>SUM($C$2:C39)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="2">
+        <f>SUM($B$2:C40)</f>
+        <v>86</v>
+      </c>
+      <c r="E40" s="2">
+        <f>SUM($C$2:C40)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <f>SUM($B$2:C41)</f>
+        <v>86</v>
+      </c>
+      <c r="E41" s="2">
+        <f>SUM($C$2:C41)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="2">
+        <f>SUM($B$2:C42)</f>
+        <v>86</v>
+      </c>
+      <c r="E42" s="2">
+        <f>SUM($C$2:C42)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D43" s="2">
+        <f>SUM($B$2:C43)</f>
+        <v>86</v>
+      </c>
+      <c r="E43" s="2">
+        <f>SUM($C$2:C43)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="2">
+        <f>SUM($B$2:C44)</f>
+        <v>86</v>
+      </c>
+      <c r="E44" s="2">
+        <f>SUM($C$2:C44)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D45" s="2">
+        <f>SUM($B$2:C45)</f>
+        <v>86</v>
+      </c>
+      <c r="E45" s="2">
+        <f>SUM($C$2:C45)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <f>SUM($B$2:C46)</f>
+        <v>87</v>
+      </c>
+      <c r="E46" s="2">
+        <f>SUM($C$2:C46)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D47" s="2">
+        <f>SUM($B$2:C47)</f>
+        <v>87</v>
+      </c>
+      <c r="E47" s="2">
+        <f>SUM($C$2:C47)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D48" s="2">
+        <f>SUM($B$2:C48)</f>
+        <v>87</v>
+      </c>
+      <c r="E48" s="2">
+        <f>SUM($C$2:C48)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D49" s="2">
+        <f>SUM($B$2:C49)</f>
+        <v>87</v>
+      </c>
+      <c r="E49" s="2">
+        <f>SUM($C$2:C49)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D50" s="2">
+        <f>SUM($B$2:C50)</f>
+        <v>87</v>
+      </c>
+      <c r="E50" s="2">
+        <f>SUM($C$2:C50)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2">
+        <f>SUM($B$2:C51)</f>
+        <v>87</v>
+      </c>
+      <c r="E51" s="2">
+        <f>SUM($C$2:C51)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <f>SUM($B$2:C52)</f>
+        <v>88</v>
+      </c>
+      <c r="E52" s="2">
+        <f>SUM($C$2:C52)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <f>SUM($B$2:C53)</f>
+        <v>89</v>
+      </c>
+      <c r="E53" s="2">
+        <f>SUM($C$2:C53)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D54" s="2">
+        <f>SUM($B$2:C54)</f>
+        <v>89</v>
+      </c>
+      <c r="E54" s="2">
+        <f>SUM($C$2:C54)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D55" s="2">
+        <f>SUM($B$2:C55)</f>
+        <v>89</v>
+      </c>
+      <c r="E55" s="2">
+        <f>SUM($C$2:C55)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D56" s="2">
+        <f>SUM($B$2:C56)</f>
+        <v>89</v>
+      </c>
+      <c r="E56" s="2">
+        <f>SUM($C$2:C56)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <f>SUM($B$2:C57)</f>
+        <v>96</v>
+      </c>
+      <c r="E57" s="2">
+        <f>SUM($C$2:C57)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <f>SUM($B$2:C58)</f>
+        <v>97</v>
+      </c>
+      <c r="E58" s="2">
+        <f>SUM($C$2:C58)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D59" s="2">
+        <f>SUM($B$2:C59)</f>
+        <v>97</v>
+      </c>
+      <c r="E59" s="2">
+        <f>SUM($C$2:C59)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D60" s="2">
+        <f>SUM($B$2:C60)</f>
+        <v>97</v>
+      </c>
+      <c r="E60" s="2">
+        <f>SUM($C$2:C60)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <f>SUM($B$2:C61)</f>
+        <v>97</v>
+      </c>
+      <c r="E61" s="2">
+        <f>SUM($C$2:C61)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D62" s="2">
+        <f>SUM($B$2:C62)</f>
+        <v>97</v>
+      </c>
+      <c r="E62" s="2">
+        <f>SUM($C$2:C62)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D63" s="2">
+        <f>SUM($B$2:C63)</f>
+        <v>97</v>
+      </c>
+      <c r="E63" s="2">
+        <f>SUM($C$2:C63)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D64" s="2">
+        <f>SUM($B$2:C64)</f>
+        <v>97</v>
+      </c>
+      <c r="E64" s="2">
+        <f>SUM($C$2:C64)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D65" s="2">
+        <f>SUM($B$2:C65)</f>
+        <v>97</v>
+      </c>
+      <c r="E65" s="2">
+        <f>SUM($C$2:C65)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D66" s="2">
+        <f>SUM($B$2:C66)</f>
+        <v>97</v>
+      </c>
+      <c r="E66" s="2">
+        <f>SUM($C$2:C66)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D67" s="2">
+        <f>SUM($B$2:C67)</f>
+        <v>99</v>
+      </c>
+      <c r="E67" s="2">
+        <f>SUM($C$2:C67)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D68" s="2">
+        <f>SUM($B$2:C68)</f>
+        <v>99</v>
+      </c>
+      <c r="E68" s="2">
+        <f>SUM($C$2:C68)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="2">
         <v>0</v>
       </c>
-      <c r="D21" s="3">
-        <f>SUM($B$2:C21)</f>
-        <v>61</v>
-      </c>
-      <c r="E21" s="3">
-        <f>SUM($C$2:C21)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
+      <c r="C69" s="2">
+        <v>10</v>
+      </c>
+      <c r="D69" s="2">
+        <f>SUM($B$2:C69)</f>
+        <v>109</v>
+      </c>
+      <c r="E69" s="2">
+        <f>SUM($C$2:C69)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D70" s="2">
+        <f>SUM($B$2:C70)</f>
+        <v>109</v>
+      </c>
+      <c r="E70" s="2">
+        <f>SUM($C$2:C70)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2">
+        <f>SUM($B$2:C71)</f>
+        <v>109</v>
+      </c>
+      <c r="E71" s="2">
+        <f>SUM($C$2:C71)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D72" s="2">
+        <f>SUM($B$2:C72)</f>
+        <v>109</v>
+      </c>
+      <c r="E72" s="2">
+        <f>SUM($C$2:C72)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D73" s="2">
+        <f>SUM($B$2:C73)</f>
+        <v>109</v>
+      </c>
+      <c r="E73" s="2">
+        <f>SUM($C$2:C73)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <f>SUM($B$2:C74)</f>
+        <v>109</v>
+      </c>
+      <c r="E74" s="2">
+        <f>SUM($C$2:C74)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D75" s="2">
+        <f>SUM($B$2:C75)</f>
+        <v>109</v>
+      </c>
+      <c r="E75" s="2">
+        <f>SUM($C$2:C75)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D76" s="2">
+        <f>SUM($B$2:C76)</f>
+        <v>109</v>
+      </c>
+      <c r="E76" s="2">
+        <f>SUM($C$2:C76)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D77" s="2">
+        <f>SUM($B$2:C77)</f>
+        <v>109</v>
+      </c>
+      <c r="E77" s="2">
+        <f>SUM($C$2:C77)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D78" s="2">
+        <f>SUM($B$2:C78)</f>
+        <v>109</v>
+      </c>
+      <c r="E78" s="2">
+        <f>SUM($C$2:C78)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D79" s="2">
+        <f>SUM($B$2:C79)</f>
+        <v>109</v>
+      </c>
+      <c r="E79" s="2">
+        <f>SUM($C$2:C79)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D80" s="2">
+        <f>SUM($B$2:C80)</f>
+        <v>109</v>
+      </c>
+      <c r="E80" s="2">
+        <f>SUM($C$2:C80)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2">
+        <f>SUM($B$2:C81)</f>
+        <v>109</v>
+      </c>
+      <c r="E81" s="2">
+        <f>SUM($C$2:C81)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2">
+        <f>SUM($B$2:C82)</f>
+        <v>109</v>
+      </c>
+      <c r="E82" s="2">
+        <f>SUM($C$2:C82)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D83" s="2">
+        <f>SUM($B$2:C83)</f>
+        <v>109</v>
+      </c>
+      <c r="E83" s="2">
+        <f>SUM($C$2:C83)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D84" s="2">
+        <f>SUM($B$2:C84)</f>
+        <v>109</v>
+      </c>
+      <c r="E84" s="2">
+        <f>SUM($C$2:C84)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="3">
-        <f>SUM($B$2:C22)</f>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <f>SUM($B$2:C85)</f>
+        <v>110</v>
+      </c>
+      <c r="E85" s="2">
+        <f>SUM($C$2:C85)</f>
         <v>62</v>
       </c>
-      <c r="E22" s="3">
-        <f>SUM($C$2:C22)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D23" s="3">
-        <f>SUM($B$2:C23)</f>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <f>SUM($B$2:C86)</f>
+        <v>110</v>
+      </c>
+      <c r="E86" s="2">
+        <f>SUM($C$2:C86)</f>
         <v>62</v>
       </c>
-      <c r="E23" s="3">
-        <f>SUM($C$2:C23)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D24" s="3">
-        <f>SUM($B$2:C24)</f>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <f>SUM($B$2:C87)</f>
+        <v>110</v>
+      </c>
+      <c r="E87" s="2">
+        <f>SUM($C$2:C87)</f>
         <v>62</v>
       </c>
-      <c r="E24" s="3">
-        <f>SUM($C$2:C24)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D25" s="3">
-        <f>SUM($B$2:C25)</f>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D88" s="2">
+        <f>SUM($B$2:C88)</f>
+        <v>110</v>
+      </c>
+      <c r="E88" s="2">
+        <f>SUM($C$2:C88)</f>
         <v>62</v>
       </c>
-      <c r="E25" s="3">
-        <f>SUM($C$2:C25)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D89" s="2">
+        <f>SUM($B$2:C89)</f>
+        <v>110</v>
+      </c>
+      <c r="E89" s="2">
+        <f>SUM($C$2:C89)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <f>SUM($B$2:C90)</f>
+        <v>110</v>
+      </c>
+      <c r="E90" s="2">
+        <f>SUM($C$2:C90)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <f>SUM($B$2:C91)</f>
+        <v>110</v>
+      </c>
+      <c r="E91" s="2">
+        <f>SUM($C$2:C91)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D92" s="2">
+        <f>SUM($B$2:C92)</f>
+        <v>110</v>
+      </c>
+      <c r="E92" s="2">
+        <f>SUM($C$2:C92)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D93" s="2">
+        <f>SUM($B$2:C93)</f>
+        <v>110</v>
+      </c>
+      <c r="E93" s="2">
+        <f>SUM($C$2:C93)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C94" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="3">
-        <f>SUM($B$2:C26)</f>
+      <c r="D94" s="2">
+        <f>SUM($B$2:C94)</f>
+        <v>111</v>
+      </c>
+      <c r="E94" s="2">
+        <f>SUM($C$2:C94)</f>
         <v>63</v>
       </c>
-      <c r="E26" s="3">
-        <f>SUM($C$2:C26)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D95" s="2">
+        <f>SUM($B$2:C95)</f>
+        <v>111</v>
+      </c>
+      <c r="E95" s="2">
+        <f>SUM($C$2:C95)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D96" s="2">
+        <f>SUM($B$2:C96)</f>
+        <v>111</v>
+      </c>
+      <c r="E96" s="2">
+        <f>SUM($C$2:C96)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D97" s="2">
+        <f>SUM($B$2:C97)</f>
+        <v>111</v>
+      </c>
+      <c r="E97" s="2">
+        <f>SUM($C$2:C97)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D98" s="2">
+        <f>SUM($B$2:C98)</f>
+        <v>111</v>
+      </c>
+      <c r="E98" s="2">
+        <f>SUM($C$2:C98)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D99" s="2">
+        <f>SUM($B$2:C99)</f>
+        <v>111</v>
+      </c>
+      <c r="E99" s="2">
+        <f>SUM($C$2:C99)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D100" s="2">
+        <f>SUM($B$2:C100)</f>
+        <v>111</v>
+      </c>
+      <c r="E100" s="2">
+        <f>SUM($C$2:C100)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <f>SUM($B$2:C101)</f>
+        <v>112</v>
+      </c>
+      <c r="E101" s="2">
+        <f>SUM($C$2:C101)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D102" s="2">
+        <f>SUM($B$2:C102)</f>
+        <v>112</v>
+      </c>
+      <c r="E102" s="2">
+        <f>SUM($C$2:C102)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D103" s="2">
+        <f>SUM($B$2:C103)</f>
+        <v>112</v>
+      </c>
+      <c r="E103" s="2">
+        <f>SUM($C$2:C103)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D104" s="2">
+        <f>SUM($B$2:C104)</f>
+        <v>112</v>
+      </c>
+      <c r="E104" s="2">
+        <f>SUM($C$2:C104)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D105" s="2">
+        <f>SUM($B$2:C105)</f>
+        <v>112</v>
+      </c>
+      <c r="E105" s="2">
+        <f>SUM($C$2:C105)</f>
+        <v>64</v>
+      </c>
+      <c r="G105" s="2">
+        <f>E105/D105*100</f>
+        <v>57.142857142857139</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B195" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="3">
-        <f>SUM($B$2:C27)</f>
-        <v>67</v>
-      </c>
-      <c r="E27" s="3">
-        <f>SUM($C$2:C27)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <f>SUM($B$2:C28)</f>
-        <v>68</v>
-      </c>
-      <c r="E28" s="3">
-        <f>SUM($C$2:C28)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D29" s="3">
-        <f>SUM($B$2:C29)</f>
-        <v>68</v>
-      </c>
-      <c r="E29" s="3">
-        <f>SUM($C$2:C29)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <f>SUM($B$2:C30)</f>
-        <v>69</v>
-      </c>
-      <c r="E30" s="3">
-        <f>SUM($C$2:C30)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3">
-        <f>SUM($B$2:C31)</f>
-        <v>69</v>
-      </c>
-      <c r="E31" s="3">
-        <f>SUM($C$2:C31)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D32" s="3">
-        <f>SUM($B$2:C32)</f>
-        <v>69</v>
-      </c>
-      <c r="E32" s="3">
-        <f>SUM($C$2:C32)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D33" s="3">
-        <f>SUM($B$2:C33)</f>
-        <v>69</v>
-      </c>
-      <c r="E33" s="3">
-        <f>SUM($C$2:C33)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D34" s="3">
-        <f>SUM($B$2:C34)</f>
-        <v>69</v>
-      </c>
-      <c r="E34" s="3">
-        <f>SUM($C$2:C34)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <f>SUM($B$2:C35)</f>
-        <v>70</v>
-      </c>
-      <c r="E35" s="3">
-        <f>SUM($C$2:C35)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D36" s="3">
-        <f>SUM($B$2:C36)</f>
-        <v>70</v>
-      </c>
-      <c r="E36" s="3">
-        <f>SUM($C$2:C36)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D37" s="3">
-        <f>SUM($B$2:C37)</f>
-        <v>70</v>
-      </c>
-      <c r="E37" s="3">
-        <f>SUM($C$2:C37)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D38" s="3">
-        <f>SUM($B$2:C38)</f>
-        <v>70</v>
-      </c>
-      <c r="E38" s="3">
-        <f>SUM($C$2:C38)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D39" s="3">
-        <f>SUM($B$2:C39)</f>
-        <v>70</v>
-      </c>
-      <c r="E39" s="3">
-        <f>SUM($C$2:C39)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D40" s="3">
-        <f>SUM($B$2:C40)</f>
-        <v>70</v>
-      </c>
-      <c r="E40" s="3">
-        <f>SUM($C$2:C40)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <f>SUM($B$2:C41)</f>
-        <v>70</v>
-      </c>
-      <c r="E41" s="3">
-        <f>SUM($C$2:C41)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D42" s="3">
-        <f>SUM($B$2:C42)</f>
-        <v>70</v>
-      </c>
-      <c r="E42" s="3">
-        <f>SUM($C$2:C42)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D43" s="3">
-        <f>SUM($B$2:C43)</f>
-        <v>70</v>
-      </c>
-      <c r="E43" s="3">
-        <f>SUM($C$2:C43)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D44" s="3">
-        <f>SUM($B$2:C44)</f>
-        <v>70</v>
-      </c>
-      <c r="E44" s="3">
-        <f>SUM($C$2:C44)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D45" s="3">
-        <f>SUM($B$2:C45)</f>
-        <v>70</v>
-      </c>
-      <c r="E45" s="3">
-        <f>SUM($C$2:C45)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <f>SUM($B$2:C46)</f>
-        <v>71</v>
-      </c>
-      <c r="E46" s="3">
-        <f>SUM($C$2:C46)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D47" s="3">
-        <f>SUM($B$2:C47)</f>
-        <v>71</v>
-      </c>
-      <c r="E47" s="3">
-        <f>SUM($C$2:C47)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D48" s="3">
-        <f>SUM($B$2:C48)</f>
-        <v>71</v>
-      </c>
-      <c r="E48" s="3">
-        <f>SUM($C$2:C48)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D49" s="3">
-        <f>SUM($B$2:C49)</f>
-        <v>71</v>
-      </c>
-      <c r="E49" s="3">
-        <f>SUM($C$2:C49)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D50" s="3">
-        <f>SUM($B$2:C50)</f>
-        <v>71</v>
-      </c>
-      <c r="E50" s="3">
-        <f>SUM($C$2:C50)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="D51" s="3">
-        <f>SUM($B$2:C51)</f>
-        <v>71</v>
-      </c>
-      <c r="E51" s="3">
-        <f>SUM($C$2:C51)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3">
-        <f>SUM($B$2:C52)</f>
-        <v>72</v>
-      </c>
-      <c r="E52" s="3">
-        <f>SUM($C$2:C52)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="3">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3">
-        <f>SUM($B$2:C53)</f>
-        <v>73</v>
-      </c>
-      <c r="E53" s="3">
-        <f>SUM($C$2:C53)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D54" s="3">
-        <f>SUM($B$2:C54)</f>
-        <v>73</v>
-      </c>
-      <c r="E54" s="3">
-        <f>SUM($C$2:C54)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D55" s="3">
-        <f>SUM($B$2:C55)</f>
-        <v>73</v>
-      </c>
-      <c r="E55" s="3">
-        <f>SUM($C$2:C55)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D56" s="3">
-        <f>SUM($B$2:C56)</f>
-        <v>73</v>
-      </c>
-      <c r="E56" s="3">
-        <f>SUM($C$2:C56)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="3">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3">
-        <v>3</v>
-      </c>
-      <c r="D57" s="3">
-        <f>SUM($B$2:C57)</f>
-        <v>80</v>
-      </c>
-      <c r="E57" s="3">
-        <f>SUM($C$2:C57)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <f>SUM($B$2:C58)</f>
-        <v>81</v>
-      </c>
-      <c r="E58" s="3">
-        <f>SUM($C$2:C58)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D59" s="3">
-        <f>SUM($B$2:C59)</f>
-        <v>81</v>
-      </c>
-      <c r="E59" s="3">
-        <f>SUM($C$2:C59)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D60" s="3">
-        <f>SUM($B$2:C60)</f>
-        <v>81</v>
-      </c>
-      <c r="E60" s="3">
-        <f>SUM($C$2:C60)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="D61" s="3">
-        <f>SUM($B$2:C61)</f>
-        <v>81</v>
-      </c>
-      <c r="E61" s="3">
-        <f>SUM($C$2:C61)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D62" s="3">
-        <f>SUM($B$2:C62)</f>
-        <v>81</v>
-      </c>
-      <c r="E62" s="3">
-        <f>SUM($C$2:C62)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D63" s="3">
-        <f>SUM($B$2:C63)</f>
-        <v>81</v>
-      </c>
-      <c r="E63" s="3">
-        <f>SUM($C$2:C63)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D64" s="3">
-        <f>SUM($B$2:C64)</f>
-        <v>81</v>
-      </c>
-      <c r="E64" s="3">
-        <f>SUM($C$2:C64)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D65" s="3">
-        <f>SUM($B$2:C65)</f>
-        <v>81</v>
-      </c>
-      <c r="E65" s="3">
-        <f>SUM($C$2:C65)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D66" s="3">
-        <f>SUM($B$2:C66)</f>
-        <v>81</v>
-      </c>
-      <c r="E66" s="3">
-        <f>SUM($C$2:C66)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="3">
-        <v>2</v>
-      </c>
-      <c r="D67" s="3">
-        <f>SUM($B$2:C67)</f>
-        <v>83</v>
-      </c>
-      <c r="E67" s="3">
-        <f>SUM($C$2:C67)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D68" s="3">
-        <f>SUM($B$2:C68)</f>
-        <v>83</v>
-      </c>
-      <c r="E68" s="3">
-        <f>SUM($C$2:C68)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="3">
-        <v>0</v>
-      </c>
-      <c r="C69" s="3">
-        <v>10</v>
-      </c>
-      <c r="D69" s="3">
-        <f>SUM($B$2:C69)</f>
-        <v>93</v>
-      </c>
-      <c r="E69" s="3">
-        <f>SUM($C$2:C69)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D70" s="3">
-        <f>SUM($B$2:C70)</f>
-        <v>93</v>
-      </c>
-      <c r="E70" s="3">
-        <f>SUM($C$2:C70)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
-        <v>70</v>
-      </c>
-      <c r="D71" s="3">
-        <f>SUM($B$2:C71)</f>
-        <v>93</v>
-      </c>
-      <c r="E71" s="3">
-        <f>SUM($C$2:C71)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D72" s="3">
-        <f>SUM($B$2:C72)</f>
-        <v>93</v>
-      </c>
-      <c r="E72" s="3">
-        <f>SUM($C$2:C72)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D73" s="3">
-        <f>SUM($B$2:C73)</f>
-        <v>93</v>
-      </c>
-      <c r="E73" s="3">
-        <f>SUM($C$2:C73)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <f>SUM($B$2:C74)</f>
-        <v>93</v>
-      </c>
-      <c r="E74" s="3">
-        <f>SUM($C$2:C74)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D75" s="3">
-        <f>SUM($B$2:C75)</f>
-        <v>93</v>
-      </c>
-      <c r="E75" s="3">
-        <f>SUM($C$2:C75)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D76" s="3">
-        <f>SUM($B$2:C76)</f>
-        <v>93</v>
-      </c>
-      <c r="E76" s="3">
-        <f>SUM($C$2:C76)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D77" s="3">
-        <f>SUM($B$2:C77)</f>
-        <v>93</v>
-      </c>
-      <c r="E77" s="3">
-        <f>SUM($C$2:C77)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D78" s="3">
-        <f>SUM($B$2:C78)</f>
-        <v>93</v>
-      </c>
-      <c r="E78" s="3">
-        <f>SUM($C$2:C78)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D79" s="3">
-        <f>SUM($B$2:C79)</f>
-        <v>93</v>
-      </c>
-      <c r="E79" s="3">
-        <f>SUM($C$2:C79)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D80" s="3">
-        <f>SUM($B$2:C80)</f>
-        <v>93</v>
-      </c>
-      <c r="E80" s="3">
-        <f>SUM($C$2:C80)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
-      <c r="D81" s="3">
-        <f>SUM($B$2:C81)</f>
-        <v>93</v>
-      </c>
-      <c r="E81" s="3">
-        <f>SUM($C$2:C81)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="3">
-        <v>0</v>
-      </c>
-      <c r="D82" s="3">
-        <f>SUM($B$2:C82)</f>
-        <v>93</v>
-      </c>
-      <c r="E82" s="3">
-        <f>SUM($C$2:C82)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D83" s="3">
-        <f>SUM($B$2:C83)</f>
-        <v>93</v>
-      </c>
-      <c r="E83" s="3">
-        <f>SUM($C$2:C83)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D84" s="3">
-        <f>SUM($B$2:C84)</f>
-        <v>93</v>
-      </c>
-      <c r="E84" s="3">
-        <f>SUM($C$2:C84)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3">
-        <f>SUM($B$2:C85)</f>
-        <v>94</v>
-      </c>
-      <c r="E85" s="3">
-        <f>SUM($C$2:C85)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86" s="3">
-        <f>SUM($B$2:C86)</f>
-        <v>94</v>
-      </c>
-      <c r="E86" s="3">
-        <f>SUM($C$2:C86)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="3">
-        <v>0</v>
-      </c>
-      <c r="D87" s="3">
-        <f>SUM($B$2:C87)</f>
-        <v>94</v>
-      </c>
-      <c r="E87" s="3">
-        <f>SUM($C$2:C87)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D88" s="3">
-        <f>SUM($B$2:C88)</f>
-        <v>94</v>
-      </c>
-      <c r="E88" s="3">
-        <f>SUM($C$2:C88)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D89" s="3">
-        <f>SUM($B$2:C89)</f>
-        <v>94</v>
-      </c>
-      <c r="E89" s="3">
-        <f>SUM($C$2:C89)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B90" s="3">
-        <v>0</v>
-      </c>
-      <c r="D90" s="3">
-        <f>SUM($B$2:C90)</f>
-        <v>94</v>
-      </c>
-      <c r="E90" s="3">
-        <f>SUM($C$2:C90)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="3">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3">
-        <v>0</v>
-      </c>
-      <c r="D91" s="3">
-        <f>SUM($B$2:C91)</f>
-        <v>94</v>
-      </c>
-      <c r="E91" s="3">
-        <f>SUM($C$2:C91)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D92" s="3">
-        <f>SUM($B$2:C92)</f>
-        <v>94</v>
-      </c>
-      <c r="E92" s="3">
-        <f>SUM($C$2:C92)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D93" s="3">
-        <f>SUM($B$2:C93)</f>
-        <v>94</v>
-      </c>
-      <c r="E93" s="3">
-        <f>SUM($C$2:C93)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C94" s="3">
-        <v>1</v>
-      </c>
-      <c r="D94" s="3">
-        <f>SUM($B$2:C94)</f>
-        <v>95</v>
-      </c>
-      <c r="E94" s="3">
-        <f>SUM($C$2:C94)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D95" s="3">
-        <f>SUM($B$2:C95)</f>
-        <v>95</v>
-      </c>
-      <c r="E95" s="3">
-        <f>SUM($C$2:C95)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D96" s="3">
-        <f>SUM($B$2:C96)</f>
-        <v>95</v>
-      </c>
-      <c r="E96" s="3">
-        <f>SUM($C$2:C96)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D97" s="3">
-        <f>SUM($B$2:C97)</f>
-        <v>95</v>
-      </c>
-      <c r="E97" s="3">
-        <f>SUM($C$2:C97)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D98" s="3">
-        <f>SUM($B$2:C98)</f>
-        <v>95</v>
-      </c>
-      <c r="E98" s="3">
-        <f>SUM($C$2:C98)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D99" s="3">
-        <f>SUM($B$2:C99)</f>
-        <v>95</v>
-      </c>
-      <c r="E99" s="3">
-        <f>SUM($C$2:C99)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D100" s="3">
-        <f>SUM($B$2:C100)</f>
-        <v>95</v>
-      </c>
-      <c r="E100" s="3">
-        <f>SUM($C$2:C100)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="3">
-        <v>100</v>
-      </c>
-      <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="3">
-        <f>SUM($B$2:C101)</f>
-        <v>96</v>
-      </c>
-      <c r="E101" s="3">
-        <f>SUM($C$2:C101)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D102" s="3">
-        <f>SUM($B$2:C102)</f>
-        <v>96</v>
-      </c>
-      <c r="E102" s="3">
-        <f>SUM($C$2:C102)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D103" s="3">
-        <f>SUM($B$2:C103)</f>
-        <v>96</v>
-      </c>
-      <c r="E103" s="3">
-        <f>SUM($C$2:C103)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D104" s="3">
-        <f>SUM($B$2:C104)</f>
-        <v>96</v>
-      </c>
-      <c r="E104" s="3">
-        <f>SUM($C$2:C104)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D105" s="3">
-        <f>SUM($B$2:C105)</f>
-        <v>96</v>
-      </c>
-      <c r="E105" s="3">
-        <f>SUM($C$2:C105)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B195" s="3">
-        <v>0</v>
-      </c>
-      <c r="D195" s="3">
+      <c r="D195" s="2">
         <f>SUM($B$2:C195)</f>
-        <v>96</v>
-      </c>
-      <c r="E195" s="3">
+        <v>112</v>
+      </c>
+      <c r="E195" s="2">
         <f>SUM($C$2:C195)</f>
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D196" s="3">
+      <c r="D196" s="2">
         <f>SUM($B$2:C196)</f>
-        <v>96</v>
-      </c>
-      <c r="E196" s="3">
+        <v>112</v>
+      </c>
+      <c r="E196" s="2">
         <f>SUM($C$2:C196)</f>
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
